--- a/Additional data.xlsx
+++ b/Additional data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/walkerro_umsystem_edu/Documents/Desktop/R scripts/briggs/darts and arrows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{738E5066-EDBC-4EC6-8393-57BD0E242020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6123A7F6-8E37-4CDF-8F0B-7462CE89DB40}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{738E5066-EDBC-4EC6-8393-57BD0E242020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035D22EA-A65E-4CEA-B9A1-478C77FC9D4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE590660-3E26-475F-86FE-495AF599D9C3}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="209">
   <si>
     <t>Length</t>
   </si>
@@ -603,13 +603,76 @@
   </si>
   <si>
     <t>Great Basin</t>
+  </si>
+  <si>
+    <t>JcUu-1: 33</t>
+  </si>
+  <si>
+    <t>unkown</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Thomas, C.D., Monahan, V., Alix, C., Hare, P.G., Herkes, J., Smith, H., Helwig, K., Poulin, J. and Donohoe, M., 2023. The Alligator Lake Throwing Dart, Yukon, Canada. Journal of Glacial Archaeology, 7.</t>
+  </si>
+  <si>
+    <t>corner notch</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Gunnerson, J.H. 1969. The Fremont Culture: A Study in Cultural Dynamics on the Northern Anasazi Frontier. Papers of the Peabody Museum of American Archaeology and Ethnology 59(2). Cambridge: Harvard University.; Zeanah, D.W., Elston, R.G., 2001. Testing a Simple Hypothesis Concerning the Resilience of Dart Point Styles to Hafting Element Repair. Journal of California and Great Basin Anthropology 23, 93-124.</t>
+  </si>
+  <si>
+    <t>Martin, R S., J. B. Rinaldo, E. Bluhm, H. C Cutler, and R. Grange Jr., 1952. Mogollon Cultural Change and Continuity: The Stratigraphic Analysis of Tularosa and Cordova Caves. Fieldiana: Anthropology, 40:376-382.</t>
+  </si>
+  <si>
+    <t>Guernsey, S. J., 1931. Explorations in Northeastern Arizona. Papers of the Peabody Museum of American Archaeology and Ethnology 12(1) Cambridge: Harvard University.</t>
+  </si>
+  <si>
+    <t>Cosgrove, G. B., 1947. Caves of the Upper Gila and Hueco Areas of New Mexico and Texas. Papers of the Peabody Museum of American Archaeology and Ethnology 24(2) Cambridge, Harvard University.</t>
+  </si>
+  <si>
+    <t>split stem</t>
+  </si>
+  <si>
+    <t>Hattori, E. M., 1982. The Archaeology of Falcon Hill, Winnemucca Lake, Washoe County, Nevada. Nevada State Museum Anthropological Papers 18. Carson City, NV: Nevada State Museum.</t>
+  </si>
+  <si>
+    <t>basal notch</t>
+  </si>
+  <si>
+    <t>Pendleton, LS.A., 1985 Material Culture: Artifacts of Stone. In: The Archaeology of Hidden Gave, Nevada., D. H. Thomas ed., pp. 183-218. Anthropological Papers of the American Museum of Natural History, vol. 61(1). New York: American Museum of Natural History.</t>
+  </si>
+  <si>
+    <t>Pendleton, LS.A., 1985 Material Culture: Artifacts of Stone. In: The Archaeology of Hidden Gave, Nevada., D. H. Thomas ed., pp. 183-218. Anthropological Papers of the American Museum of Natural History, vol. 61(1). New York: American Museum of Natural His</t>
+  </si>
+  <si>
+    <t>Stemmed</t>
+  </si>
+  <si>
+    <t>Hough,W., 1914. Culture of the Ancient Pueblos of the Upper Gila River Region, New Mexico and Arizona. Bulletin No. 87. Washington D.C: United States National Museum.</t>
+  </si>
+  <si>
+    <t>Loud, L. L. and M. R. Harrington, 1929. Lovelock Cave. University of California Publications in American Archaeology and Ethnology 25(1):1-183.</t>
+  </si>
+  <si>
+    <t>RBCPM-20018</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Keddie, G., &amp; Nelson, E. (2005). An arrow from the Tsitsutl Glacier, British Columbia. Canadian Journal of Archaeology, 29, 113–123.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,8 +688,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -681,6 +766,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +797,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240D5E2-BF46-4834-83EF-342C917E2FD5}">
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,434 +1171,386 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="13">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
+        <v>25.4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C7" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>54</v>
+      </c>
+      <c r="C9" s="13">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <v>59</v>
+      </c>
+      <c r="C10" s="13">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C11" s="13">
+        <v>23.6</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
+        <v>53.4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>33.6</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <v>95.3</v>
+      </c>
+      <c r="C13" s="13">
+        <v>22.2</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>49.3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>89.28</v>
+      </c>
+      <c r="C15" s="13">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="16">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B17" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C17" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
       <c r="I17" t="s">
@@ -1510,27 +1559,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>8</v>
       </c>
       <c r="I18" t="s">
@@ -1539,56 +1588,56 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="3">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
-        <v>29</v>
-      </c>
       <c r="C20" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>8</v>
       </c>
       <c r="I20" t="s">
@@ -1596,28 +1645,28 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>5</v>
+      <c r="A21" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B21" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
       <c r="I21" t="s">
@@ -1626,16 +1675,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -1646,7 +1695,7 @@
       <c r="G22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>8</v>
       </c>
       <c r="I22" t="s">
@@ -1655,27 +1704,27 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>8</v>
       </c>
       <c r="I23" t="s">
@@ -1684,27 +1733,27 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>8</v>
       </c>
       <c r="I24" t="s">
@@ -1712,14 +1761,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
+      <c r="A25" s="5">
+        <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -1728,12 +1777,12 @@
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
@@ -1742,13 +1791,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1757,12 +1806,12 @@
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" t="s">
         <v>8</v>
       </c>
       <c r="I26" t="s">
@@ -1770,28 +1819,28 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>5</v>
+      <c r="A27" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B27" s="3">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
       <c r="I27" t="s">
@@ -1800,10 +1849,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
         <v>13</v>
@@ -1815,12 +1864,12 @@
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>8</v>
       </c>
       <c r="I28" t="s">
@@ -1829,16 +1878,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3">
         <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -1849,7 +1898,7 @@
       <c r="G29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>8</v>
       </c>
       <c r="I29" t="s">
@@ -1857,23 +1906,23 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>2</v>
+      <c r="A30" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>187</v>
@@ -1890,19 +1939,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>187</v>
@@ -1916,13 +1965,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
@@ -1931,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>187</v>
@@ -1945,45 +1994,45 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3">
-        <v>14</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3">
         <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>8</v>
-      </c>
-      <c r="B34" s="3">
-        <v>25</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -2002,17 +2051,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>25</v>
+      <c r="A35" s="5">
+        <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -2032,16 +2081,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
       </c>
       <c r="D36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -2061,13 +2110,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -2090,16 +2139,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3">
         <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -2118,17 +2167,17 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>6</v>
+      <c r="A39" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -2148,13 +2197,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C40" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2163,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>187</v>
@@ -2176,23 +2225,23 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>26</v>
+      <c r="A41" s="5">
+        <v>5</v>
       </c>
       <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>187</v>
@@ -2206,13 +2255,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3">
         <v>4</v>
@@ -2234,14 +2283,14 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>3</v>
+      <c r="A43" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B43" s="3">
         <v>29</v>
       </c>
       <c r="C43" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
@@ -2250,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>187</v>
@@ -2264,13 +2313,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C44" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
@@ -2293,22 +2342,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>24</v>
       </c>
       <c r="C45" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>187</v>
@@ -2321,17 +2370,17 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>27</v>
+      <c r="A46" s="5">
+        <v>5</v>
       </c>
       <c r="B46" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -2351,22 +2400,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D47" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>187</v>
@@ -2379,14 +2428,14 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>28</v>
+      <c r="A48" s="5">
+        <v>8</v>
       </c>
       <c r="B48" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -2395,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>187</v>
@@ -2409,22 +2458,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>187</v>
@@ -2441,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="B50" s="3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C50" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>187</v>
@@ -2467,22 +2516,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3">
         <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>187</v>
@@ -2496,22 +2545,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>187</v>
@@ -2525,22 +2574,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
         <v>15</v>
       </c>
       <c r="D53" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>187</v>
@@ -2554,22 +2603,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B54" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C54" s="3">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>187</v>
@@ -2583,22 +2632,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>187</v>
@@ -2615,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
@@ -2644,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -2673,19 +2722,19 @@
         <v>4</v>
       </c>
       <c r="B58" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>187</v>
@@ -2702,13 +2751,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C59" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -2727,17 +2776,17 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>6</v>
+      <c r="A60" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B60" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C60" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -2757,16 +2806,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C61" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -2785,17 +2834,17 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>8</v>
+      <c r="A62" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B62" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -2815,22 +2864,22 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C63" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>187</v>
@@ -2853,13 +2902,13 @@
         <v>18</v>
       </c>
       <c r="D64" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>187</v>
@@ -2873,22 +2922,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C65" s="3">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D65" s="3">
-        <v>5</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>187</v>
@@ -2902,42 +2951,42 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>26</v>
+      </c>
+      <c r="C66" s="3">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>5</v>
       </c>
-      <c r="B66" s="3">
-        <v>28</v>
-      </c>
-      <c r="C66" s="3">
-        <v>16</v>
-      </c>
-      <c r="D66" s="3">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="B67" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C67" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
@@ -2946,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>187</v>
@@ -2960,16 +3009,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <v>25</v>
+      </c>
+      <c r="C68" s="3">
+        <v>15</v>
+      </c>
+      <c r="D68" s="3">
         <v>2</v>
-      </c>
-      <c r="B68" s="3">
-        <v>33</v>
-      </c>
-      <c r="C68" s="3">
-        <v>16</v>
-      </c>
-      <c r="D68" s="3">
-        <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -2988,23 +3037,23 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>3</v>
+      <c r="A69" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B69" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3">
         <v>13</v>
       </c>
       <c r="D69" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>187</v>
@@ -3018,13 +3067,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -3033,7 +3082,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>187</v>
@@ -3047,22 +3096,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C71" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>187</v>
@@ -3076,13 +3125,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
@@ -3091,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>187</v>
@@ -3105,22 +3154,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C73" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>187</v>
@@ -3134,22 +3183,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C74" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>187</v>
@@ -3163,22 +3212,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C75" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>187</v>
@@ -3192,16 +3241,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C76" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D76" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -3221,13 +3270,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B77" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" s="3">
         <v>5</v>
@@ -3236,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>187</v>
@@ -3253,10 +3302,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C78" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -3265,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>187</v>
@@ -3279,16 +3328,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C79" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -3308,22 +3357,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>187</v>
@@ -3336,14 +3385,14 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>5</v>
+      <c r="A81" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B81" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
@@ -3352,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>187</v>
@@ -3366,16 +3415,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B82" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C82" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -3394,23 +3443,23 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>34</v>
+      <c r="A83" s="5">
+        <v>3</v>
       </c>
       <c r="B83" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C83" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>187</v>
@@ -3424,13 +3473,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" s="3">
         <v>24</v>
       </c>
       <c r="C84" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3">
         <v>4</v>
@@ -3439,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>187</v>
@@ -3453,22 +3502,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B85" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C85" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>187</v>
@@ -3481,17 +3530,17 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>35</v>
+      <c r="A86" s="5">
+        <v>7</v>
       </c>
       <c r="B86" s="3">
         <v>25</v>
       </c>
       <c r="C86" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -3511,16 +3560,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C87" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -3540,16 +3589,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B88" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C88" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -3569,387 +3618,457 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3">
         <v>19</v>
       </c>
       <c r="C89" s="3">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>14</v>
+      </c>
+      <c r="B90" s="3">
+        <v>20</v>
+      </c>
+      <c r="C90" s="3">
+        <v>12</v>
+      </c>
+      <c r="D90" s="3">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="3">
+        <v>31</v>
+      </c>
+      <c r="C91" s="3">
+        <v>18</v>
+      </c>
+      <c r="D91" s="3">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>2</v>
+      </c>
+      <c r="B92" s="3">
+        <v>25</v>
+      </c>
+      <c r="C92" s="3">
+        <v>15</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3">
+        <v>23</v>
+      </c>
+      <c r="C93" s="3">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3">
+        <v>23</v>
+      </c>
+      <c r="C94" s="3">
+        <v>18</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3">
+        <v>27</v>
+      </c>
+      <c r="C95" s="3">
+        <v>15</v>
+      </c>
+      <c r="D95" s="3">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>6</v>
+      </c>
+      <c r="B96" s="3">
+        <v>24</v>
+      </c>
+      <c r="C96" s="3">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="3">
+        <v>25</v>
+      </c>
+      <c r="C97" s="3">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>2</v>
+      </c>
+      <c r="B98" s="3">
+        <v>24</v>
+      </c>
+      <c r="C98" s="3">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3">
+        <v>20</v>
+      </c>
+      <c r="C99" s="3">
+        <v>12</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="3">
+        <v>25</v>
+      </c>
+      <c r="C100" s="3">
+        <v>12</v>
+      </c>
+      <c r="D100" s="3">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
+        <v>27</v>
+      </c>
+      <c r="C101" s="3">
+        <v>12</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>7</v>
+      </c>
+      <c r="B102" s="3">
+        <v>19</v>
+      </c>
+      <c r="C102" s="3">
+        <v>12</v>
+      </c>
+      <c r="D102" s="3">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>10</v>
       </c>
-      <c r="D89" s="3">
+      <c r="B103" s="3">
+        <v>19</v>
+      </c>
+      <c r="C103" s="3">
+        <v>10</v>
+      </c>
+      <c r="D103" s="3">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="3">
-        <v>41.1</v>
-      </c>
-      <c r="C90" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="D90" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="3">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C91" s="3">
-        <v>16</v>
-      </c>
-      <c r="D91" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="C92" s="3">
-        <v>15.4</v>
-      </c>
-      <c r="D92" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="3">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="C93" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="D93" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="3">
-        <v>32.6</v>
-      </c>
-      <c r="C94" s="3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D94" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="3">
-        <v>35</v>
-      </c>
-      <c r="C95" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D95" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="3">
-        <v>30.1</v>
-      </c>
-      <c r="C96" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="3">
-        <v>36</v>
-      </c>
-      <c r="C97" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D97" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98" s="3">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C98" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="D98" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="3">
-        <v>31</v>
-      </c>
-      <c r="C99" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="D99" s="3">
-        <v>3</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="C100" s="3">
-        <v>14.9</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" s="3">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="C101" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="D101" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="C102" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="C103" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="D103" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G103" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I103" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B104" s="3">
-        <v>19.3</v>
+        <v>41.1</v>
       </c>
       <c r="C104" s="3">
-        <v>12.2</v>
+        <v>16.5</v>
       </c>
       <c r="D104" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" t="s">
@@ -3958,22 +4077,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B105" s="3">
-        <v>21.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C105" s="3">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="D105" s="3">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" t="s">
@@ -3982,22 +4101,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B106" s="3">
-        <v>20.5</v>
+        <v>44.7</v>
       </c>
       <c r="C106" s="3">
-        <v>11.8</v>
+        <v>15.4</v>
       </c>
       <c r="D106" s="3">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" t="s">
@@ -4006,22 +4125,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B107" s="3">
-        <v>23.3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C107" s="3">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="D107" s="3">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" t="s">
@@ -4030,22 +4149,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B108" s="3">
-        <v>21</v>
+        <v>32.6</v>
       </c>
       <c r="C108" s="3">
-        <v>12.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D108" s="3">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" t="s">
@@ -4054,22 +4173,22 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B109" s="3">
-        <v>37.700000000000003</v>
+        <v>35</v>
       </c>
       <c r="C109" s="3">
-        <v>29.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D109" s="3">
-        <v>8.1999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" t="s">
@@ -4078,22 +4197,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B110" s="3">
-        <v>29</v>
+        <v>30.1</v>
       </c>
       <c r="C110" s="3">
-        <v>16.2</v>
+        <v>17.5</v>
       </c>
       <c r="D110" s="3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" t="s">
@@ -4102,22 +4221,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B111" s="3">
-        <v>30.8</v>
+        <v>36</v>
       </c>
       <c r="C111" s="3">
-        <v>18.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D111" s="3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" t="s">
@@ -4126,16 +4245,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B112" s="3">
-        <v>15</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C112" s="3">
-        <v>11.2</v>
+        <v>13.3</v>
       </c>
       <c r="D112" s="3">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -4149,23 +4268,23 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>66</v>
+      <c r="A113" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B113" s="3">
-        <v>32.700000000000003</v>
+        <v>31</v>
       </c>
       <c r="C113" s="3">
-        <v>16.399999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="D113" s="3">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>48</v>
+      <c r="G113" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" t="s">
@@ -4174,22 +4293,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B114" s="3">
-        <v>17</v>
+        <v>27.8</v>
       </c>
       <c r="C114" s="3">
-        <v>10.8</v>
+        <v>14.9</v>
       </c>
       <c r="D114" s="3">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" t="s">
@@ -4198,22 +4317,22 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B115" s="3">
-        <v>27.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C115" s="3">
-        <v>14.2</v>
+        <v>28.5</v>
       </c>
       <c r="D115" s="3">
-        <v>4.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" t="s">
@@ -4222,22 +4341,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B116" s="3">
-        <v>35.1</v>
+        <v>24.8</v>
       </c>
       <c r="C116" s="3">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="D116" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" t="s">
@@ -4246,22 +4365,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B117" s="3">
-        <v>17.2</v>
+        <v>22.5</v>
       </c>
       <c r="C117" s="3">
-        <v>9.6</v>
+        <v>12.4</v>
       </c>
       <c r="D117" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" t="s">
@@ -4270,22 +4389,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B118" s="3">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="C118" s="3">
-        <v>15.4</v>
+        <v>12.2</v>
       </c>
       <c r="D118" s="3">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" t="s">
@@ -4294,22 +4413,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B119" s="3">
-        <v>32.5</v>
+        <v>21.6</v>
       </c>
       <c r="C119" s="3">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="D119" s="3">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" t="s">
@@ -4318,22 +4437,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B120" s="3">
-        <v>22.9</v>
+        <v>20.5</v>
       </c>
       <c r="C120" s="3">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D120" s="3">
-        <v>4.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" t="s">
@@ -4342,22 +4461,22 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B121" s="3">
-        <v>32.5</v>
+        <v>23.3</v>
       </c>
       <c r="C121" s="3">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="D121" s="3">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" t="s">
@@ -4366,22 +4485,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B122" s="3">
-        <v>35.1</v>
+        <v>21</v>
       </c>
       <c r="C122" s="3">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D122" s="3">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" t="s">
@@ -4390,22 +4509,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B123" s="3">
-        <v>18</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C123" s="3">
-        <v>9.9</v>
+        <v>29.3</v>
       </c>
       <c r="D123" s="3">
-        <v>2.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" t="s">
@@ -4414,16 +4533,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B124" s="3">
-        <v>19.7</v>
+        <v>29</v>
       </c>
       <c r="C124" s="3">
-        <v>11</v>
+        <v>16.2</v>
       </c>
       <c r="D124" s="3">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>7</v>
@@ -4438,16 +4557,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B125" s="3">
-        <v>18.8</v>
+        <v>30.8</v>
       </c>
       <c r="C125" s="3">
-        <v>11.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D125" s="3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -4462,16 +4581,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B126" s="3">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C126" s="3">
-        <v>9.1999999999999993</v>
+        <v>11.2</v>
       </c>
       <c r="D126" s="3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -4486,22 +4605,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B127" s="3">
-        <v>52.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C127" s="3">
-        <v>32.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D127" s="3">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" t="s">
@@ -4510,16 +4629,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B128" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C128" s="3">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="D128" s="3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -4534,22 +4653,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B129" s="3">
-        <v>37.4</v>
+        <v>27.9</v>
       </c>
       <c r="C129" s="3">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="D129" s="3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" t="s">
@@ -4561,13 +4680,13 @@
         <v>47</v>
       </c>
       <c r="B130" s="3">
-        <v>40.4</v>
+        <v>35.1</v>
       </c>
       <c r="C130" s="3">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="D130" s="3">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -4582,16 +4701,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B131" s="3">
-        <v>38.299999999999997</v>
+        <v>17.2</v>
       </c>
       <c r="C131" s="3">
-        <v>12.6</v>
+        <v>9.6</v>
       </c>
       <c r="D131" s="3">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -4606,16 +4725,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B132" s="3">
-        <v>37.200000000000003</v>
+        <v>21.2</v>
       </c>
       <c r="C132" s="3">
-        <v>12.3</v>
+        <v>15.4</v>
       </c>
       <c r="D132" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -4630,22 +4749,22 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B133" s="3">
-        <v>41.2</v>
+        <v>32.5</v>
       </c>
       <c r="C133" s="3">
-        <v>13.1</v>
+        <v>10.6</v>
       </c>
       <c r="D133" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" t="s">
@@ -4654,22 +4773,22 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B134" s="3">
-        <v>36.4</v>
+        <v>22.9</v>
       </c>
       <c r="C134" s="3">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
       <c r="D134" s="3">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" t="s">
@@ -4681,13 +4800,13 @@
         <v>47</v>
       </c>
       <c r="B135" s="3">
-        <v>30.9</v>
+        <v>32.5</v>
       </c>
       <c r="C135" s="3">
-        <v>14.3</v>
+        <v>12.2</v>
       </c>
       <c r="D135" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -4705,13 +4824,13 @@
         <v>47</v>
       </c>
       <c r="B136" s="3">
-        <v>33.700000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="C136" s="3">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D136" s="3">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>7</v>
@@ -4726,22 +4845,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B137" s="3">
-        <v>34.6</v>
+        <v>18</v>
       </c>
       <c r="C137" s="3">
-        <v>13.2</v>
+        <v>9.9</v>
       </c>
       <c r="D137" s="3">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" t="s">
@@ -4750,16 +4869,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B138" s="3">
-        <v>35</v>
+        <v>19.7</v>
       </c>
       <c r="C138" s="3">
-        <v>14.2</v>
+        <v>11</v>
       </c>
       <c r="D138" s="3">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -4774,16 +4893,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B139" s="3">
-        <v>31</v>
+        <v>18.8</v>
       </c>
       <c r="C139" s="3">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D139" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -4798,16 +4917,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B140" s="3">
-        <v>40.799999999999997</v>
+        <v>14.9</v>
       </c>
       <c r="C140" s="3">
-        <v>12.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D140" s="3">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -4822,22 +4941,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B141" s="3">
-        <v>32.5</v>
+        <v>52.1</v>
       </c>
       <c r="C141" s="3">
-        <v>12.6</v>
+        <v>32.4</v>
       </c>
       <c r="D141" s="3">
-        <v>4.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" t="s">
@@ -4846,16 +4965,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B142" s="3">
-        <v>43.6</v>
+        <v>29</v>
       </c>
       <c r="C142" s="3">
-        <v>24.1</v>
+        <v>12.5</v>
       </c>
       <c r="D142" s="3">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -4870,22 +4989,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B143" s="3">
-        <v>21.8</v>
+        <v>37.4</v>
       </c>
       <c r="C143" s="3">
-        <v>19.3</v>
+        <v>13.5</v>
       </c>
       <c r="D143" s="3">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" t="s">
@@ -4894,22 +5013,22 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B144" s="3">
-        <v>26.9</v>
+        <v>40.4</v>
       </c>
       <c r="C144" s="3">
-        <v>20.399999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="D144" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" t="s">
@@ -4921,13 +5040,13 @@
         <v>47</v>
       </c>
       <c r="B145" s="3">
-        <v>37.799999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C145" s="3">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="D145" s="3">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -4945,13 +5064,13 @@
         <v>47</v>
       </c>
       <c r="B146" s="3">
-        <v>37.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C146" s="3">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D146" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -4966,16 +5085,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B147" s="3">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="C147" s="3">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D147" s="3">
-        <v>5.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -4993,13 +5112,13 @@
         <v>47</v>
       </c>
       <c r="B148" s="3">
-        <v>29</v>
+        <v>36.4</v>
       </c>
       <c r="C148" s="3">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
       <c r="D148" s="3">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -5014,22 +5133,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B149" s="3">
-        <v>26</v>
+        <v>30.9</v>
       </c>
       <c r="C149" s="3">
-        <v>12.2</v>
+        <v>14.3</v>
       </c>
       <c r="D149" s="3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" t="s">
@@ -5038,16 +5157,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B150" s="3">
-        <v>21</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C150" s="3">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="D150" s="3">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -5062,22 +5181,22 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B151" s="3">
-        <v>43</v>
+        <v>34.6</v>
       </c>
       <c r="C151" s="3">
-        <v>20.9</v>
+        <v>13.2</v>
       </c>
       <c r="D151" s="3">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" t="s">
@@ -5086,22 +5205,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B152" s="3">
-        <v>51.8</v>
+        <v>35</v>
       </c>
       <c r="C152" s="3">
-        <v>22.4</v>
+        <v>14.2</v>
       </c>
       <c r="D152" s="3">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" t="s">
@@ -5110,22 +5229,22 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B153" s="3">
-        <v>43.2</v>
+        <v>31</v>
       </c>
       <c r="C153" s="3">
-        <v>18.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="D153" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" t="s">
@@ -5134,22 +5253,22 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B154" s="3">
-        <v>35.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C154" s="3">
-        <v>18</v>
+        <v>12.8</v>
       </c>
       <c r="D154" s="3">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" t="s">
@@ -5158,22 +5277,22 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B155" s="3">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="C155" s="3">
-        <v>18.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="D155" s="3">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" t="s">
@@ -5182,22 +5301,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B156" s="3">
-        <v>55.4</v>
+        <v>43.6</v>
       </c>
       <c r="C156" s="3">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D156" s="3">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" t="s">
@@ -5206,22 +5325,22 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B157" s="3">
-        <v>42.6</v>
+        <v>21.8</v>
       </c>
       <c r="C157" s="3">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="D157" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" t="s">
@@ -5230,22 +5349,22 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B158" s="3">
-        <v>40</v>
+        <v>26.9</v>
       </c>
       <c r="C158" s="3">
-        <v>17.899999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D158" s="3">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" t="s">
@@ -5254,22 +5373,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B159" s="3">
-        <v>30</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C159" s="3">
-        <v>16.600000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="D159" s="3">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" t="s">
@@ -5278,13 +5397,13 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B160" s="3">
-        <v>33.9</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C160" s="3">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="D160" s="3">
         <v>4.5999999999999996</v>
@@ -5293,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" t="s">
@@ -5302,22 +5421,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B161" s="3">
-        <v>24.9</v>
+        <v>40</v>
       </c>
       <c r="C161" s="3">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="D161" s="3">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" t="s">
@@ -5326,22 +5445,22 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B162" s="3">
-        <v>31.4</v>
+        <v>29</v>
       </c>
       <c r="C162" s="3">
-        <v>12.8</v>
+        <v>14.5</v>
       </c>
       <c r="D162" s="3">
-        <v>4.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" t="s">
@@ -5350,16 +5469,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B163" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C163" s="3">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="D163" s="3">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -5374,22 +5493,22 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B164" s="3">
-        <v>29.5</v>
+        <v>21</v>
       </c>
       <c r="C164" s="3">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="D164" s="3">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" t="s">
@@ -5398,22 +5517,22 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B165" s="3">
-        <v>27.7</v>
+        <v>43</v>
       </c>
       <c r="C165" s="3">
-        <v>15.1</v>
+        <v>20.9</v>
       </c>
       <c r="D165" s="3">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" t="s">
@@ -5422,22 +5541,22 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B166" s="3">
-        <v>19.8</v>
+        <v>51.8</v>
       </c>
       <c r="C166" s="3">
-        <v>13.3</v>
+        <v>22.4</v>
       </c>
       <c r="D166" s="3">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" t="s">
@@ -5446,22 +5565,22 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B167" s="3">
-        <v>23.3</v>
+        <v>43.2</v>
       </c>
       <c r="C167" s="3">
-        <v>11.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D167" s="3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" t="s">
@@ -5470,22 +5589,22 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B168" s="3">
-        <v>25.6</v>
+        <v>35.5</v>
       </c>
       <c r="C168" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D168" s="3">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" t="s">
@@ -5494,22 +5613,22 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B169" s="3">
-        <v>28.1</v>
+        <v>45</v>
       </c>
       <c r="C169" s="3">
-        <v>12.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D169" s="3">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" t="s">
@@ -5518,22 +5637,22 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B170" s="3">
-        <v>26.2</v>
+        <v>55.4</v>
       </c>
       <c r="C170" s="3">
-        <v>12.9</v>
+        <v>24</v>
       </c>
       <c r="D170" s="3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" t="s">
@@ -5542,22 +5661,22 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B171" s="3">
-        <v>32.700000000000003</v>
+        <v>42.6</v>
       </c>
       <c r="C171" s="3">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="D171" s="3">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H171" s="3"/>
       <c r="I171" t="s">
@@ -5566,22 +5685,22 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B172" s="3">
-        <v>27.1</v>
+        <v>40</v>
       </c>
       <c r="C172" s="3">
-        <v>14.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D172" s="3">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" t="s">
@@ -5590,22 +5709,22 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B173" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" s="3">
-        <v>19.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D173" s="3">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H173" s="3"/>
       <c r="I173" t="s">
@@ -5614,22 +5733,22 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B174" s="3">
-        <v>30</v>
+        <v>33.9</v>
       </c>
       <c r="C174" s="3">
-        <v>17.600000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="D174" s="3">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H174" s="3"/>
       <c r="I174" t="s">
@@ -5638,22 +5757,22 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B175" s="3">
-        <v>35</v>
+        <v>24.9</v>
       </c>
       <c r="C175" s="3">
-        <v>16.8</v>
+        <v>11.7</v>
       </c>
       <c r="D175" s="3">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" t="s">
@@ -5662,22 +5781,22 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B176" s="3">
-        <v>33.9</v>
+        <v>31.4</v>
       </c>
       <c r="C176" s="3">
-        <v>17.100000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D176" s="3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" t="s">
@@ -5686,22 +5805,22 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B177" s="3">
-        <v>36.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="C177" s="3">
-        <v>16.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="D177" s="3">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H177" s="3"/>
       <c r="I177" t="s">
@@ -5710,13 +5829,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B178" s="3">
-        <v>40.1</v>
+        <v>29.5</v>
       </c>
       <c r="C178" s="3">
-        <v>21</v>
+        <v>12.1</v>
       </c>
       <c r="D178" s="3">
         <v>3</v>
@@ -5725,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" t="s">
@@ -5734,16 +5853,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B179" s="3">
-        <v>42.4</v>
+        <v>27.7</v>
       </c>
       <c r="C179" s="3">
-        <v>18.899999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="D179" s="3">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -5758,22 +5877,22 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B180" s="3">
-        <v>45.8</v>
+        <v>19.8</v>
       </c>
       <c r="C180" s="3">
-        <v>17.5</v>
+        <v>13.3</v>
       </c>
       <c r="D180" s="3">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" t="s">
@@ -5782,22 +5901,22 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B181" s="3">
-        <v>39.200000000000003</v>
+        <v>23.3</v>
       </c>
       <c r="C181" s="3">
-        <v>17</v>
+        <v>11.7</v>
       </c>
       <c r="D181" s="3">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H181" s="3"/>
       <c r="I181" t="s">
@@ -5806,22 +5925,22 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B182" s="3">
-        <v>48.6</v>
+        <v>25.6</v>
       </c>
       <c r="C182" s="3">
-        <v>18.8</v>
+        <v>11</v>
       </c>
       <c r="D182" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" t="s">
@@ -5830,16 +5949,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B183" s="3">
-        <v>15.2</v>
+        <v>28.1</v>
       </c>
       <c r="C183" s="3">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D183" s="3">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -5854,16 +5973,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B184" s="3">
-        <v>13.4</v>
+        <v>26.2</v>
       </c>
       <c r="C184" s="3">
-        <v>9.4</v>
+        <v>12.9</v>
       </c>
       <c r="D184" s="3">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -5878,22 +5997,22 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B185" s="3">
-        <v>34.4</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C185" s="3">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="D185" s="3">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" t="s">
@@ -5902,22 +6021,22 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B186" s="3">
-        <v>25.3</v>
+        <v>27.1</v>
       </c>
       <c r="C186" s="3">
-        <v>15.9</v>
+        <v>14.6</v>
       </c>
       <c r="D186" s="3">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" t="s">
@@ -5926,22 +6045,22 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B187" s="3">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="C187" s="3">
-        <v>14.6</v>
+        <v>19.2</v>
       </c>
       <c r="D187" s="3">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H187" s="3"/>
       <c r="I187" t="s">
@@ -5950,22 +6069,22 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B188" s="3">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="C188" s="3">
-        <v>15</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D188" s="3">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" t="s">
@@ -5974,22 +6093,22 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B189" s="3">
-        <v>30.9</v>
+        <v>35</v>
       </c>
       <c r="C189" s="3">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="D189" s="3">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" t="s">
@@ -5998,22 +6117,22 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B190" s="3">
-        <v>23.2</v>
+        <v>33.9</v>
       </c>
       <c r="C190" s="3">
-        <v>14.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D190" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" t="s">
@@ -6022,22 +6141,22 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B191" s="3">
-        <v>37.700000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C191" s="3">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D191" s="3">
-        <v>4.5999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H191" s="3"/>
       <c r="I191" t="s">
@@ -6046,22 +6165,22 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B192" s="3">
-        <v>29</v>
+        <v>40.1</v>
       </c>
       <c r="C192" s="3">
-        <v>11.2</v>
+        <v>21</v>
       </c>
       <c r="D192" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" t="s">
@@ -6070,16 +6189,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B193" s="3">
-        <v>24.4</v>
+        <v>42.4</v>
       </c>
       <c r="C193" s="3">
-        <v>12.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D193" s="3">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -6094,22 +6213,22 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B194" s="3">
-        <v>28.2</v>
+        <v>45.8</v>
       </c>
       <c r="C194" s="3">
-        <v>13.7</v>
+        <v>17.5</v>
       </c>
       <c r="D194" s="3">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" t="s">
@@ -6118,22 +6237,22 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B195" s="3">
-        <v>25.3</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C195" s="3">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="D195" s="3">
-        <v>3.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" t="s">
@@ -6142,16 +6261,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B196" s="3">
-        <v>44.2</v>
+        <v>48.6</v>
       </c>
       <c r="C196" s="3">
-        <v>13.2</v>
+        <v>18.8</v>
       </c>
       <c r="D196" s="3">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -6166,16 +6285,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B197" s="3">
-        <v>29</v>
+        <v>15.2</v>
       </c>
       <c r="C197" s="3">
-        <v>16.899999999999999</v>
+        <v>12</v>
       </c>
       <c r="D197" s="3">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -6190,16 +6309,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B198" s="3">
-        <v>45</v>
+        <v>13.4</v>
       </c>
       <c r="C198" s="3">
-        <v>17.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D198" s="3">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -6214,22 +6333,22 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B199" s="3">
-        <v>30.7</v>
+        <v>34.4</v>
       </c>
       <c r="C199" s="3">
-        <v>16.8</v>
+        <v>18.2</v>
       </c>
       <c r="D199" s="3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="H199" s="3"/>
       <c r="I199" t="s">
@@ -6238,22 +6357,22 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B200" s="3">
-        <v>32.700000000000003</v>
+        <v>25.3</v>
       </c>
       <c r="C200" s="3">
-        <v>16.600000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="D200" s="3">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" t="s">
@@ -6262,22 +6381,22 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B201" s="3">
-        <v>29.6</v>
+        <v>31.8</v>
       </c>
       <c r="C201" s="3">
-        <v>13.8</v>
+        <v>14.6</v>
       </c>
       <c r="D201" s="3">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H201" s="3"/>
       <c r="I201" t="s">
@@ -6286,22 +6405,22 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B202" s="3">
-        <v>18.399999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="C202" s="3">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D202" s="3">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H202" s="3"/>
       <c r="I202" t="s">
@@ -6310,22 +6429,22 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B203" s="3">
-        <v>19.2</v>
+        <v>30.9</v>
       </c>
       <c r="C203" s="3">
-        <v>10.7</v>
+        <v>15.5</v>
       </c>
       <c r="D203" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H203" s="3"/>
       <c r="I203" t="s">
@@ -6334,22 +6453,22 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B204" s="3">
-        <v>32.5</v>
+        <v>23.2</v>
       </c>
       <c r="C204" s="3">
-        <v>17.7</v>
+        <v>14.2</v>
       </c>
       <c r="D204" s="3">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" t="s">
@@ -6358,22 +6477,22 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B205" s="3">
-        <v>26.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C205" s="3">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D205" s="3">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H205" s="3"/>
       <c r="I205" t="s">
@@ -6382,22 +6501,22 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B206" s="3">
-        <v>20.7</v>
+        <v>29</v>
       </c>
       <c r="C206" s="3">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="D206" s="3">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" t="s">
@@ -6406,22 +6525,22 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B207" s="3">
-        <v>23.7</v>
+        <v>24.4</v>
       </c>
       <c r="C207" s="3">
-        <v>16.399999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="D207" s="3">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H207" s="3"/>
       <c r="I207" t="s">
@@ -6430,22 +6549,22 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B208" s="3">
-        <v>22.3</v>
+        <v>28.2</v>
       </c>
       <c r="C208" s="3">
-        <v>10.8</v>
+        <v>13.7</v>
       </c>
       <c r="D208" s="3">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" t="s">
@@ -6454,22 +6573,22 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B209" s="3">
-        <v>23.2</v>
+        <v>25.3</v>
       </c>
       <c r="C209" s="3">
-        <v>11.1</v>
+        <v>13.4</v>
       </c>
       <c r="D209" s="3">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H209" s="3"/>
       <c r="I209" t="s">
@@ -6478,22 +6597,22 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B210" s="3">
-        <v>31.3</v>
+        <v>44.2</v>
       </c>
       <c r="C210" s="3">
-        <v>11.8</v>
+        <v>13.2</v>
       </c>
       <c r="D210" s="3">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H210" s="3"/>
       <c r="I210" t="s">
@@ -6502,16 +6621,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B211" s="3">
-        <v>21.3</v>
+        <v>29</v>
       </c>
       <c r="C211" s="3">
-        <v>9.6999999999999993</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D211" s="3">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>7</v>
@@ -6526,16 +6645,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B212" s="3">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C212" s="3">
-        <v>11.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D212" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>7</v>
@@ -6550,16 +6669,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B213" s="3">
-        <v>22.5</v>
+        <v>30.7</v>
       </c>
       <c r="C213" s="3">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
       <c r="D213" s="3">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>7</v>
@@ -6574,16 +6693,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B214" s="3">
-        <v>24.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C214" s="3">
-        <v>10.199999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D214" s="3">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>7</v>
@@ -6598,22 +6717,22 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B215" s="3">
-        <v>24.3</v>
+        <v>29.6</v>
       </c>
       <c r="C215" s="3">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="D215" s="3">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H215" s="3"/>
       <c r="I215" t="s">
@@ -6622,16 +6741,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B216" s="3">
-        <v>27.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C216" s="3">
-        <v>12.6</v>
+        <v>15.2</v>
       </c>
       <c r="D216" s="3">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>7</v>
@@ -6646,16 +6765,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B217" s="3">
-        <v>24.8</v>
+        <v>19.2</v>
       </c>
       <c r="C217" s="3">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="D217" s="3">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>7</v>
@@ -6670,16 +6789,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B218" s="3">
-        <v>25.1</v>
+        <v>32.5</v>
       </c>
       <c r="C218" s="3">
-        <v>10.4</v>
+        <v>17.7</v>
       </c>
       <c r="D218" s="3">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>7</v>
@@ -6694,16 +6813,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B219" s="3">
-        <v>30.8</v>
+        <v>26.5</v>
       </c>
       <c r="C219" s="3">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="D219" s="3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>7</v>
@@ -6718,16 +6837,16 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B220" s="3">
-        <v>27.7</v>
+        <v>20.7</v>
       </c>
       <c r="C220" s="3">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="D220" s="3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>7</v>
@@ -6742,16 +6861,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B221" s="3">
-        <v>29.2</v>
+        <v>23.7</v>
       </c>
       <c r="C221" s="3">
-        <v>11.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D221" s="3">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>7</v>
@@ -6766,19 +6885,19 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B222" s="3">
-        <v>38.299999999999997</v>
+        <v>22.3</v>
       </c>
       <c r="C222" s="3">
-        <v>19.7</v>
+        <v>10.8</v>
       </c>
       <c r="D222" s="3">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>48</v>
@@ -6790,19 +6909,19 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B223" s="3">
-        <v>56.4</v>
+        <v>23.2</v>
       </c>
       <c r="C223" s="3">
-        <v>25</v>
+        <v>11.1</v>
       </c>
       <c r="D223" s="3">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>48</v>
@@ -6814,19 +6933,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B224" s="3">
-        <v>39.1</v>
+        <v>31.3</v>
       </c>
       <c r="C224" s="3">
-        <v>19.399999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="D224" s="3">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>48</v>
@@ -6838,19 +6957,19 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B225" s="3">
-        <v>39.9</v>
+        <v>21.3</v>
       </c>
       <c r="C225" s="3">
-        <v>15.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D225" s="3">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>48</v>
@@ -6861,23 +6980,23 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="5">
-        <v>96746</v>
+      <c r="A226" t="s">
+        <v>137</v>
       </c>
       <c r="B226" s="3">
-        <v>50.6</v>
+        <v>21</v>
       </c>
       <c r="C226" s="3">
-        <v>26.2</v>
+        <v>11.3</v>
       </c>
       <c r="D226" s="3">
-        <v>7.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" t="s">
@@ -6885,23 +7004,23 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="5">
-        <v>96745</v>
+      <c r="A227" t="s">
+        <v>138</v>
       </c>
       <c r="B227" s="3">
-        <v>39</v>
+        <v>22.5</v>
       </c>
       <c r="C227" s="3">
-        <v>19</v>
+        <v>12.3</v>
       </c>
       <c r="D227" s="3">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="H227" s="3"/>
       <c r="I227" t="s">
@@ -6910,19 +7029,19 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B228" s="3">
-        <v>57.3</v>
+        <v>24.9</v>
       </c>
       <c r="C228" s="3">
-        <v>29.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D228" s="3">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>48</v>
@@ -6934,19 +7053,19 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B229" s="3">
-        <v>65.400000000000006</v>
+        <v>24.3</v>
       </c>
       <c r="C229" s="3">
-        <v>29.6</v>
+        <v>13</v>
       </c>
       <c r="D229" s="3">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>48</v>
@@ -6958,22 +7077,22 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B230" s="3">
-        <v>34</v>
+        <v>27.3</v>
       </c>
       <c r="C230" s="3">
-        <v>20.3</v>
+        <v>12.6</v>
       </c>
       <c r="D230" s="3">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" t="s">
@@ -6981,20 +7100,20 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="5">
-        <v>349188</v>
+      <c r="A231" t="s">
+        <v>142</v>
       </c>
       <c r="B231" s="3">
-        <v>41.1</v>
+        <v>24.8</v>
       </c>
       <c r="C231" s="3">
-        <v>17.399999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D231" s="3">
         <v>3.4</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>48</v>
@@ -7005,23 +7124,23 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="s">
-        <v>154</v>
+      <c r="A232" t="s">
+        <v>143</v>
       </c>
       <c r="B232" s="3">
-        <v>35.799999999999997</v>
+        <v>25.1</v>
       </c>
       <c r="C232" s="3">
-        <v>24.2</v>
+        <v>10.4</v>
       </c>
       <c r="D232" s="3">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>155</v>
+        <v>7</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" t="s">
@@ -7029,44 +7148,44 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B233" s="10">
-        <v>81.7</v>
-      </c>
-      <c r="C233" s="10">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D233" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="E233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G233" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H233" s="10"/>
-      <c r="I233" s="11" t="s">
-        <v>157</v>
+      <c r="A233" t="s">
+        <v>144</v>
+      </c>
+      <c r="B233" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="C233" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H233" s="3"/>
+      <c r="I233" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="5">
-        <v>97179</v>
+      <c r="A234" t="s">
+        <v>145</v>
       </c>
       <c r="B234" s="3">
-        <v>21.8</v>
+        <v>27.7</v>
       </c>
       <c r="C234" s="3">
-        <v>14</v>
+        <v>10.8</v>
       </c>
       <c r="D234" s="3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>48</v>
@@ -7077,20 +7196,20 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="5">
-        <v>97179</v>
+      <c r="A235" t="s">
+        <v>146</v>
       </c>
       <c r="B235" s="3">
-        <v>39.5</v>
+        <v>29.2</v>
       </c>
       <c r="C235" s="3">
-        <v>20.5</v>
+        <v>11.7</v>
       </c>
       <c r="D235" s="3">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>48</v>
@@ -7101,17 +7220,17 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
-        <v>158</v>
+      <c r="A236" t="s">
+        <v>147</v>
       </c>
       <c r="B236" s="3">
-        <v>55.8</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C236" s="3">
-        <v>22.6</v>
+        <v>19.7</v>
       </c>
       <c r="D236" s="3">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>5</v>
@@ -7125,17 +7244,17 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
-        <v>159</v>
+      <c r="A237" t="s">
+        <v>148</v>
       </c>
       <c r="B237" s="3">
-        <v>70.400000000000006</v>
+        <v>56.4</v>
       </c>
       <c r="C237" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D237" s="3">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>5</v>
@@ -7149,17 +7268,17 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
-        <v>160</v>
+      <c r="A238" t="s">
+        <v>149</v>
       </c>
       <c r="B238" s="3">
-        <v>60.4</v>
+        <v>39.1</v>
       </c>
       <c r="C238" s="3">
-        <v>20.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D238" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>5</v>
@@ -7173,17 +7292,17 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
-        <v>161</v>
+      <c r="A239" t="s">
+        <v>147</v>
       </c>
       <c r="B239" s="3">
-        <v>54.1</v>
+        <v>39.9</v>
       </c>
       <c r="C239" s="3">
-        <v>20.3</v>
+        <v>15.4</v>
       </c>
       <c r="D239" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>5</v>
@@ -7197,23 +7316,23 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
-        <v>162</v>
+      <c r="A240" s="5">
+        <v>96746</v>
       </c>
       <c r="B240" s="3">
-        <v>60.4</v>
+        <v>50.6</v>
       </c>
       <c r="C240" s="3">
-        <v>20.5</v>
+        <v>26.2</v>
       </c>
       <c r="D240" s="3">
-        <v>4.5999999999999996</v>
+        <v>7.2</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" t="s">
@@ -7221,23 +7340,23 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
-        <v>163</v>
+      <c r="A241" s="5">
+        <v>96745</v>
       </c>
       <c r="B241" s="3">
-        <v>60.7</v>
+        <v>39</v>
       </c>
       <c r="C241" s="3">
-        <v>24.9</v>
+        <v>19</v>
       </c>
       <c r="D241" s="3">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" t="s">
@@ -7245,17 +7364,17 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
-        <v>164</v>
+      <c r="A242" t="s">
+        <v>151</v>
       </c>
       <c r="B242" s="3">
-        <v>34.299999999999997</v>
+        <v>57.3</v>
       </c>
       <c r="C242" s="3">
-        <v>20.399999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="D242" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>5</v>
@@ -7269,17 +7388,17 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
-        <v>165</v>
+      <c r="A243" t="s">
+        <v>152</v>
       </c>
       <c r="B243" s="3">
-        <v>26.5</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C243" s="3">
-        <v>23.7</v>
+        <v>29.6</v>
       </c>
       <c r="D243" s="3">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>5</v>
@@ -7293,23 +7412,23 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
-        <v>166</v>
+      <c r="A244" t="s">
+        <v>153</v>
       </c>
       <c r="B244" s="3">
-        <v>42.3</v>
+        <v>34</v>
       </c>
       <c r="C244" s="3">
-        <v>16.2</v>
+        <v>20.3</v>
       </c>
       <c r="D244" s="3">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H244" s="3"/>
       <c r="I244" t="s">
@@ -7317,47 +7436,47 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B245" s="10">
-        <v>38</v>
-      </c>
-      <c r="C245" s="10">
-        <v>18</v>
-      </c>
-      <c r="D245" s="10">
+      <c r="A245" s="5">
+        <v>349188</v>
+      </c>
+      <c r="B245" s="3">
+        <v>41.1</v>
+      </c>
+      <c r="C245" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D245" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E245" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G245" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H245" s="10"/>
-      <c r="I245" s="11" t="s">
-        <v>184</v>
+      <c r="G245" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H245" s="3"/>
+      <c r="I245" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
-        <v>169</v>
+      <c r="A246" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B246" s="3">
-        <v>44.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C246" s="3">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D246" s="3">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="3" t="s">
-        <v>48</v>
+      <c r="G246" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" t="s">
@@ -7365,41 +7484,41 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B247" s="3">
-        <v>54.6</v>
-      </c>
-      <c r="C247" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="D247" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="E247" s="3" t="s">
+      <c r="A247" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B247" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="C247" s="10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D247" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="E247" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G247" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H247" s="3"/>
-      <c r="I247" t="s">
-        <v>62</v>
+      <c r="G247" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H247" s="10"/>
+      <c r="I247" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
-        <v>171</v>
+      <c r="A248" s="5">
+        <v>97179</v>
       </c>
       <c r="B248" s="3">
-        <v>49.2</v>
+        <v>21.8</v>
       </c>
       <c r="C248" s="3">
-        <v>24.6</v>
+        <v>14</v>
       </c>
       <c r="D248" s="3">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>5</v>
@@ -7413,17 +7532,17 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
-        <v>172</v>
+      <c r="A249" s="5">
+        <v>97179</v>
       </c>
       <c r="B249" s="3">
-        <v>48.5</v>
+        <v>39.5</v>
       </c>
       <c r="C249" s="3">
-        <v>17.399999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="D249" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>5</v>
@@ -7438,16 +7557,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B250" s="3">
-        <v>57.4</v>
+        <v>55.8</v>
       </c>
       <c r="C250" s="3">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="D250" s="3">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>5</v>
@@ -7462,16 +7581,16 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B251" s="3">
-        <v>63</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C251" s="3">
-        <v>23.1</v>
+        <v>20</v>
       </c>
       <c r="D251" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>5</v>
@@ -7486,13 +7605,13 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B252" s="3">
-        <v>57.2</v>
+        <v>60.4</v>
       </c>
       <c r="C252" s="3">
-        <v>27.4</v>
+        <v>20.2</v>
       </c>
       <c r="D252" s="3">
         <v>4</v>
@@ -7510,16 +7629,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B253" s="3">
-        <v>58.8</v>
+        <v>54.1</v>
       </c>
       <c r="C253" s="3">
-        <v>28</v>
+        <v>20.3</v>
       </c>
       <c r="D253" s="3">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>5</v>
@@ -7534,16 +7653,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B254" s="3">
         <v>60.4</v>
       </c>
       <c r="C254" s="3">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="D254" s="3">
-        <v>5.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>5</v>
@@ -7558,16 +7677,16 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B255" s="3">
-        <v>52.8</v>
+        <v>60.7</v>
       </c>
       <c r="C255" s="3">
-        <v>27.5</v>
+        <v>24.9</v>
       </c>
       <c r="D255" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>5</v>
@@ -7582,16 +7701,16 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B256" s="3">
-        <v>85.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C256" s="3">
-        <v>32</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D256" s="3">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>5</v>
@@ -7606,16 +7725,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B257" s="3">
-        <v>66.5</v>
+        <v>26.5</v>
       </c>
       <c r="C257" s="3">
-        <v>28.4</v>
+        <v>23.7</v>
       </c>
       <c r="D257" s="3">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>5</v>
@@ -7630,22 +7749,22 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B258" s="3">
-        <v>67.099999999999994</v>
+        <v>42.3</v>
       </c>
       <c r="C258" s="3">
-        <v>29.7</v>
+        <v>16.2</v>
       </c>
       <c r="D258" s="3">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H258" s="3"/>
       <c r="I258" t="s">
@@ -7653,41 +7772,41 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B259" s="3">
-        <v>48.9</v>
-      </c>
-      <c r="C259" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="D259" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E259" s="3" t="s">
+      <c r="A259" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B259" s="10">
+        <v>38</v>
+      </c>
+      <c r="C259" s="10">
+        <v>18</v>
+      </c>
+      <c r="D259" s="10">
         <v>5</v>
       </c>
-      <c r="G259" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H259" s="3"/>
-      <c r="I259" t="s">
-        <v>62</v>
+      <c r="E259" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H259" s="10"/>
+      <c r="I259" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B260" s="3">
-        <v>61.3</v>
+        <v>44.1</v>
       </c>
       <c r="C260" s="3">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="D260" s="3">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>5</v>
@@ -7697,6 +7816,342 @@
       </c>
       <c r="H260" s="3"/>
       <c r="I260" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B261" s="3">
+        <v>54.6</v>
+      </c>
+      <c r="C261" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="D261" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H261" s="3"/>
+      <c r="I261" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B262" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="C262" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="D262" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H262" s="3"/>
+      <c r="I262" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B263" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="C263" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D263" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H263" s="3"/>
+      <c r="I263" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B264" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="C264" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="D264" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H264" s="3"/>
+      <c r="I264" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B265" s="3">
+        <v>63</v>
+      </c>
+      <c r="C265" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="D265" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="I265" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B266" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="C266" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="D266" s="3">
+        <v>4</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H266" s="3"/>
+      <c r="I266" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B267" s="3">
+        <v>58.8</v>
+      </c>
+      <c r="C267" s="3">
+        <v>28</v>
+      </c>
+      <c r="D267" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H267" s="3"/>
+      <c r="I267" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B268" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="C268" s="3">
+        <v>30</v>
+      </c>
+      <c r="D268" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H268" s="3"/>
+      <c r="I268" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B269" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="C269" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="D269" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H269" s="3"/>
+      <c r="I269" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B270" s="3">
+        <v>85.3</v>
+      </c>
+      <c r="C270" s="3">
+        <v>32</v>
+      </c>
+      <c r="D270" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H270" s="3"/>
+      <c r="I270" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B271" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="C271" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="D271" s="3">
+        <v>5</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H271" s="3"/>
+      <c r="I271" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B272" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C272" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="D272" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H272" s="3"/>
+      <c r="I272" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B273" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="C273" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D273" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H273" s="3"/>
+      <c r="I273" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B274" s="3">
+        <v>61.3</v>
+      </c>
+      <c r="C274" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="D274" s="3">
+        <v>6</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H274" s="3"/>
+      <c r="I274" t="s">
         <v>62</v>
       </c>
     </row>
